--- a/data/output/FV2404_FV2310/INVOIC/31010.xlsx
+++ b/data/output/FV2404_FV2310/INVOIC/31010.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="266">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="266">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -901,6 +901,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U158" totalsRowShown="0">
+  <autoFilter ref="A1:U158"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,7 +1220,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8321,5 +8354,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/INVOIC/31010.xlsx
+++ b/data/output/FV2404_FV2310/INVOIC/31010.xlsx
@@ -1794,7 +1794,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2"/>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2"/>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2"/>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2"/>
@@ -3144,7 +3144,7 @@
         <v>251</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="2"/>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5318,22 +5318,22 @@
       <c r="V75" s="5"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
         <v>237</v>
       </c>
       <c r="K76" s="6" t="s">
@@ -5342,19 +5342,19 @@
       <c r="L76" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5" t="s">
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>237</v>
       </c>
       <c r="V76" s="6" t="s">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N116" s="2"/>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7544,7 +7544,7 @@
         <v>260</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8598,7 +8598,7 @@
         <v>260</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -8752,7 +8752,7 @@
         <v>261</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -9202,7 +9202,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N156" s="2"/>
